--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{297EA1B2-F65C-4488-8152-7C1C41B06730}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D31720D-AAE5-4C1E-BEE8-0679305D2FD0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>《小码哥-JSE》</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>13.控制外层循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.方法重载注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.JVM内存模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3268,6 +3280,1020 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423520BF-C860-4843-9C06-C95AA76DB963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="48310800"/>
+          <a:ext cx="6791325" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法的重载设计</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(overload)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>重载方法的定义</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是在同一个类中，某方法允许存在一个以上的同名方法，只要它们的参数列表不同即可</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法重载的作用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>屏蔽了同一功能的方法由于参数不同所造成方法名称不同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法重载判断原则： “两同一不同”</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>两同：同类中，方法名相同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一不同：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法参数列表不同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参数类型、参数个数、参数顺序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>        只要参数类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>参数个数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>参数顺序有一个不同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>参数列表就不同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注意：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法重载和方法的返回值类型无关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，只是一般要求返回值类型一致。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参数列表和参数的名称没关系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法的重载和形参没关系</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD587502-DF96-40D3-9B6C-A1466C43F02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="314325" y="51387375"/>
+          <a:ext cx="5543550" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3614CAA-74C7-4047-BE32-DC029011FD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="54340125"/>
+          <a:ext cx="4638675" cy="4581525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E9C1A7-744B-4EB7-B4A2-D7FEEBDB6656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="54302025"/>
+          <a:ext cx="6200775" cy="2885440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>JVM内存划分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>人为的根据不同内存空间的存储特点以及存储的数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>:（这是属于逻辑分区）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>程序计数器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>当前线程所执行的字节码的行号指示器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本地方法栈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：为虚拟机使用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>native方法服务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ava虚拟机栈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：描述Java方法执行的内存模型，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>每个方法被执行的时候都会同时创建一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>栈帧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>用于存储局部变量表、操作栈、动态链接、方法出口等信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>每一个方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>创建一个栈帧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>栈帧存放了当前方法的数据信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>局部变量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>当方法调用完毕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>该方法的栈帧就被销毁了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Java堆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>被所有线程共享的一块内存区域</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，在虚拟机启动时创建。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>所有的对象实例以及数组都要在堆上分配</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>关键字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>就表示在堆中开辟一块新的存储空间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方法区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：线程共享的内存区域，存储已</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>被虚拟机加载的类信息、常量、静态变量即时编译器编译后的代码数据等</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>(这个区域的内存回收目标主要是针对常量池的回收和对类型的卸载)。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A23D8C-419E-42F3-87E0-08CCDAE1A008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="57388125"/>
+          <a:ext cx="6191250" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GC(Garbage Collection):垃圾回收器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Java的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自动垃圾回收机制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>:简单理解为,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>程序员就不需要再手动的去控制内存的释放。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>当JVM发觉内存资源紧张的时候，就会自动地去清理无用对象（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>没有被引用到的对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）所占用的内存空间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组/面向对象再讲.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3536,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="P257" sqref="P257"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="R326" sqref="R326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3620,6 +4646,21 @@
         <v>14</v>
       </c>
     </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D31720D-AAE5-4C1E-BEE8-0679305D2FD0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286E4B7-BC61-4684-8B7F-1C4809159C85}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4564,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="R326" sqref="R326"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="P339" sqref="P339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286E4B7-BC61-4684-8B7F-1C4809159C85}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A753DF-72BF-4F96-9460-BDB8E6700AEE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>《小码哥-JSE》</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>16.JVM内存模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、数组的动态初始化和静态初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己实现：格式化打印、逆序、indexOf、lastIndexOf、reverse方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、数组的常见操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19、main方法的数组参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20、二维数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21、Java5对数组的新语法支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4294,6 +4318,1230 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF059CE-DA8B-4502-9D25-C82E3CBF9C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="59912250"/>
+          <a:ext cx="8029575" cy="1629410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>数组的静态初始化操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>特点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有我们自己来为每一个数组元素设置初始化值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>而数组的长度由系统</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(JVM)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>决定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>语法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组元素类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[]  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组名 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>数组元素类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>[]{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>元素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>元素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>元素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3,.......};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>举例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>int[]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> nums = new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int[]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>{1,3,5,7,9};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>简单写法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>必须声明之后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>立刻初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>不能先声明后初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> int[] nums = {1,3,5,7,9};</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC466AC3-9C86-4D9E-A2E5-36F8B4E2A414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="59912250"/>
+          <a:ext cx="5581650" cy="2352040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>数组的动态初始化操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    由我们来设置数组的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>元素个数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数组长度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>而每一个数组元素的初始值有系统决定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>语法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组元素类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[]  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组名 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>= new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>数组元素类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>[ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>length</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> ];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>比如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    int[] ages = new  int[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int[]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> nums = new  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int[5]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>{1,3,5,7,9};//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>写法是错误的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>不能同时使用静态初始化和动态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>什么时候使用静态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>什么时候使用动态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>当我们事先知道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>需要存储哪一些数据的时候</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>选用静态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>当我们事先不知道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>存储哪些数据的时候</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>只能使用动态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131864</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>85421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D8E102-9395-4682-A4B0-3ADE03746B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="64274700"/>
+          <a:ext cx="11885714" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4C5CE7-4C9D-41DB-9916-9D77F66524A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="67846575"/>
+          <a:ext cx="4610100" cy="2532380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>二维数组的初始化操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>静态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int[][]  arr = new int[][]   {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	{1,2,3} ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	{4,5},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	{6}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>动态初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int[][]  arr = new int[3][5] ;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>创建一个长度为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的二维数组</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>每一个元素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一维数组</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的长度为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int[][]  arr = new int[0][5] </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>针对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>维数组</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>个循环嵌套</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>36213</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>75464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE359112-F708-4162-A1FE-5FF81B1D78EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="71304150"/>
+          <a:ext cx="15095238" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>683922</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>37309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E4989D-4E9C-42C0-8A2C-E11175F307DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="77343000"/>
+          <a:ext cx="15019047" cy="6323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4562,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="P339" sqref="P339"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4661,6 +5909,36 @@
         <v>17</v>
       </c>
     </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
